--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H2">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I2">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J2">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9155216666666668</v>
+        <v>3.804073</v>
       </c>
       <c r="N2">
-        <v>2.746565</v>
+        <v>11.412219</v>
       </c>
       <c r="O2">
-        <v>0.0009052932071410816</v>
+        <v>0.002709930581035491</v>
       </c>
       <c r="P2">
-        <v>0.0009061307672178309</v>
+        <v>0.002718501263158387</v>
       </c>
       <c r="Q2">
-        <v>36.97664357428945</v>
+        <v>137.456780817811</v>
       </c>
       <c r="R2">
-        <v>332.7897921686051</v>
+        <v>1237.111027360299</v>
       </c>
       <c r="S2">
-        <v>0.0003551279655329637</v>
+        <v>0.001802895735521992</v>
       </c>
       <c r="T2">
-        <v>0.0004257440541143828</v>
+        <v>0.001892115270541997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H3">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I3">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J3">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>3.227997</v>
       </c>
       <c r="O3">
-        <v>0.001063977643628237</v>
+        <v>0.0007665159410094411</v>
       </c>
       <c r="P3">
-        <v>0.001064962015530984</v>
+        <v>0.0007689401966411163</v>
       </c>
       <c r="Q3">
-        <v>43.45809930872768</v>
+        <v>38.88026299789301</v>
       </c>
       <c r="R3">
-        <v>391.122893778549</v>
+        <v>349.922366981037</v>
       </c>
       <c r="S3">
-        <v>0.0004173766167400043</v>
+        <v>0.0005099570929700686</v>
       </c>
       <c r="T3">
-        <v>0.0005003706555093599</v>
+        <v>0.0005351932360361956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H4">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I4">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J4">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>481.2993676666667</v>
+        <v>664.3897910000001</v>
       </c>
       <c r="N4">
-        <v>1443.898103</v>
+        <v>1993.169373</v>
       </c>
       <c r="O4">
-        <v>0.4759221589329922</v>
+        <v>0.4732953895360785</v>
       </c>
       <c r="P4">
-        <v>0.4763624730730059</v>
+        <v>0.4747922781878888</v>
       </c>
       <c r="Q4">
-        <v>19439.01036830502</v>
+        <v>24007.13179770164</v>
       </c>
       <c r="R4">
-        <v>174951.0933147451</v>
+        <v>216064.1861793147</v>
       </c>
       <c r="S4">
-        <v>0.186694505957549</v>
+        <v>0.3148797409824279</v>
       </c>
       <c r="T4">
-        <v>0.2238181263138817</v>
+        <v>0.3304621307591379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H5">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I5">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J5">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.804308</v>
+        <v>13.2769335</v>
       </c>
       <c r="N5">
-        <v>5.608616</v>
+        <v>26.553867</v>
       </c>
       <c r="O5">
-        <v>0.002772977500767022</v>
+        <v>0.009458169733868035</v>
       </c>
       <c r="P5">
-        <v>0.00185036200458034</v>
+        <v>0.006325388689197062</v>
       </c>
       <c r="Q5">
-        <v>113.2620899798787</v>
+        <v>479.7501357208845</v>
       </c>
       <c r="R5">
-        <v>679.5725398792721</v>
+        <v>2878.500814325307</v>
       </c>
       <c r="S5">
-        <v>0.001087782224088431</v>
+        <v>0.006292446750616793</v>
       </c>
       <c r="T5">
-        <v>0.0008693895516074779</v>
+        <v>0.004402559856469737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H6">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I6">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J6">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>525.2033083333334</v>
+        <v>721.2061360000001</v>
       </c>
       <c r="N6">
-        <v>1575.609925</v>
+        <v>2163.618408</v>
       </c>
       <c r="O6">
-        <v>0.5193355927154716</v>
+        <v>0.5137699942080085</v>
       </c>
       <c r="P6">
-        <v>0.519816072139665</v>
+        <v>0.5153948916631147</v>
       </c>
       <c r="Q6">
-        <v>21212.22931510375</v>
+        <v>26060.13968728056</v>
       </c>
       <c r="R6">
-        <v>190910.0638359337</v>
+        <v>234541.257185525</v>
       </c>
       <c r="S6">
-        <v>0.203724706001422</v>
+        <v>0.3418071806263165</v>
       </c>
       <c r="T6">
-        <v>0.2442347285326794</v>
+        <v>0.3587221231385909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J7">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.9155216666666668</v>
+        <v>3.804073</v>
       </c>
       <c r="N7">
-        <v>2.746565</v>
+        <v>11.412219</v>
       </c>
       <c r="O7">
-        <v>0.0009052932071410816</v>
+        <v>0.002709930581035491</v>
       </c>
       <c r="P7">
-        <v>0.0009061307672178309</v>
+        <v>0.002718501263158387</v>
       </c>
       <c r="Q7">
-        <v>8.71897669597778</v>
+        <v>36.22811457598667</v>
       </c>
       <c r="R7">
-        <v>78.47079026380001</v>
+        <v>326.05303118388</v>
       </c>
       <c r="S7">
-        <v>8.373806155096408E-05</v>
+        <v>0.0004751712711911933</v>
       </c>
       <c r="T7">
-        <v>0.0001003891139772206</v>
+        <v>0.0004986859753614091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J8">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>3.227997</v>
       </c>
       <c r="O8">
-        <v>0.001063977643628237</v>
+        <v>0.0007665159410094411</v>
       </c>
       <c r="P8">
-        <v>0.001064962015530984</v>
+        <v>0.0007689401966411163</v>
       </c>
       <c r="Q8">
         <v>10.24728364982667</v>
@@ -948,10 +948,10 @@
         <v>92.22555284844002</v>
       </c>
       <c r="S8">
-        <v>9.841609846201614E-05</v>
+        <v>0.0001344043115446136</v>
       </c>
       <c r="T8">
-        <v>0.0001179858327587828</v>
+        <v>0.0001410555504068667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.57052</v>
       </c>
       <c r="I9">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J9">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>481.2993676666667</v>
+        <v>664.3897910000001</v>
       </c>
       <c r="N9">
-        <v>1443.898103</v>
+        <v>1993.169373</v>
       </c>
       <c r="O9">
-        <v>0.4759221589329922</v>
+        <v>0.4732953895360785</v>
       </c>
       <c r="P9">
-        <v>0.4763624730730059</v>
+        <v>0.4747922781878888</v>
       </c>
       <c r="Q9">
-        <v>4583.657736635952</v>
+        <v>6327.320603853775</v>
       </c>
       <c r="R9">
-        <v>41252.91962972356</v>
+        <v>56945.88543468397</v>
       </c>
       <c r="S9">
-        <v>0.04402197953528653</v>
+        <v>0.0829897169575666</v>
       </c>
       <c r="T9">
-        <v>0.05277561289594807</v>
+        <v>0.08709661222195203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>28.57052</v>
       </c>
       <c r="I10">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J10">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.804308</v>
+        <v>13.2769335</v>
       </c>
       <c r="N10">
-        <v>5.608616</v>
+        <v>26.553867</v>
       </c>
       <c r="O10">
-        <v>0.002772977500767022</v>
+        <v>0.009458169733868035</v>
       </c>
       <c r="P10">
-        <v>0.00185036200458034</v>
+        <v>0.006325388689197062</v>
       </c>
       <c r="Q10">
-        <v>26.70684593338667</v>
+        <v>126.44296470014</v>
       </c>
       <c r="R10">
-        <v>160.24107560032</v>
+        <v>758.6577882008401</v>
       </c>
       <c r="S10">
-        <v>0.0002564956400942934</v>
+        <v>0.001658437513874192</v>
       </c>
       <c r="T10">
-        <v>0.0002049993322125867</v>
+        <v>0.001160338849483359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>28.57052</v>
       </c>
       <c r="I11">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J11">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>525.2033083333334</v>
+        <v>721.2061360000001</v>
       </c>
       <c r="N11">
-        <v>1575.609925</v>
+        <v>2163.618408</v>
       </c>
       <c r="O11">
-        <v>0.5193355927154716</v>
+        <v>0.5137699942080085</v>
       </c>
       <c r="P11">
-        <v>0.519816072139665</v>
+        <v>0.5153948916631147</v>
       </c>
       <c r="Q11">
-        <v>5001.77720826789</v>
+        <v>6868.411444236909</v>
       </c>
       <c r="R11">
-        <v>45015.99487441101</v>
+        <v>61815.70299813217</v>
       </c>
       <c r="S11">
-        <v>0.04803764734494174</v>
+        <v>0.09008671401258825</v>
       </c>
       <c r="T11">
-        <v>0.05758978372784369</v>
+        <v>0.09454481692853767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H12">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I12">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J12">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.9155216666666668</v>
+        <v>3.804073</v>
       </c>
       <c r="N12">
-        <v>2.746565</v>
+        <v>11.412219</v>
       </c>
       <c r="O12">
-        <v>0.0009052932071410816</v>
+        <v>0.002709930581035491</v>
       </c>
       <c r="P12">
-        <v>0.0009061307672178309</v>
+        <v>0.002718501263158387</v>
       </c>
       <c r="Q12">
-        <v>0.7864123598422222</v>
+        <v>1.941816959385333</v>
       </c>
       <c r="R12">
-        <v>7.07771123858</v>
+        <v>17.476352634468</v>
       </c>
       <c r="S12">
-        <v>7.552795343894647E-06</v>
+        <v>2.546904921249596E-05</v>
       </c>
       <c r="T12">
-        <v>9.054645146799815E-06</v>
+        <v>2.67294308770422E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H13">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I13">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J13">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>3.227997</v>
       </c>
       <c r="O13">
-        <v>0.001063977643628237</v>
+        <v>0.0007665159410094411</v>
       </c>
       <c r="P13">
-        <v>0.001064962015530984</v>
+        <v>0.0007689401966411163</v>
       </c>
       <c r="Q13">
-        <v>0.9242587516893334</v>
+        <v>0.5492515802093334</v>
       </c>
       <c r="R13">
-        <v>8.318328765203999</v>
+        <v>4.943264221884</v>
       </c>
       <c r="S13">
-        <v>8.876688049147167E-06</v>
+        <v>7.204034066537744E-06</v>
       </c>
       <c r="T13">
-        <v>1.064178978831171E-05</v>
+        <v>7.560538636946906E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H14">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I14">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J14">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>481.2993676666667</v>
+        <v>664.3897910000001</v>
       </c>
       <c r="N14">
-        <v>1443.898103</v>
+        <v>1993.169373</v>
       </c>
       <c r="O14">
-        <v>0.4759221589329922</v>
+        <v>0.4732953895360785</v>
       </c>
       <c r="P14">
-        <v>0.4763624730730059</v>
+        <v>0.4747922781878888</v>
       </c>
       <c r="Q14">
-        <v>413.4252473733329</v>
+        <v>339.1426410077507</v>
       </c>
       <c r="R14">
-        <v>3720.827226359996</v>
+        <v>3052.283769069756</v>
       </c>
       <c r="S14">
-        <v>0.003970583936443052</v>
+        <v>0.004448225962871612</v>
       </c>
       <c r="T14">
-        <v>0.004760122171076383</v>
+        <v>0.004668354417474905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H15">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I15">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J15">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2.804308</v>
+        <v>13.2769335</v>
       </c>
       <c r="N15">
-        <v>5.608616</v>
+        <v>26.553867</v>
       </c>
       <c r="O15">
-        <v>0.002772977500767022</v>
+        <v>0.009458169733868035</v>
       </c>
       <c r="P15">
-        <v>0.00185036200458034</v>
+        <v>0.006325388689197062</v>
       </c>
       <c r="Q15">
-        <v>2.408837007685333</v>
+        <v>6.777308069254</v>
       </c>
       <c r="R15">
-        <v>14.453022046112</v>
+        <v>40.663848415524</v>
       </c>
       <c r="S15">
-        <v>2.313474948371494E-05</v>
+        <v>8.889179379642193E-05</v>
       </c>
       <c r="T15">
-        <v>1.849001485297591E-05</v>
+        <v>6.219384262558157E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H16">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I16">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J16">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>525.2033083333334</v>
+        <v>721.2061360000001</v>
       </c>
       <c r="N16">
-        <v>1575.609925</v>
+        <v>2163.618408</v>
       </c>
       <c r="O16">
-        <v>0.5193355927154716</v>
+        <v>0.5137699942080085</v>
       </c>
       <c r="P16">
-        <v>0.519816072139665</v>
+        <v>0.5153948916631147</v>
       </c>
       <c r="Q16">
-        <v>451.1377372500112</v>
+        <v>368.1449609661974</v>
       </c>
       <c r="R16">
-        <v>4060.2396352501</v>
+        <v>3313.304648695776</v>
       </c>
       <c r="S16">
-        <v>0.004332779055050288</v>
+        <v>0.004828623049593962</v>
       </c>
       <c r="T16">
-        <v>0.005194338659616965</v>
+        <v>0.005067576137553274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H17">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I17">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J17">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.9155216666666668</v>
+        <v>3.804073</v>
       </c>
       <c r="N17">
-        <v>2.746565</v>
+        <v>11.412219</v>
       </c>
       <c r="O17">
-        <v>0.0009052932071410816</v>
+        <v>0.002709930581035491</v>
       </c>
       <c r="P17">
-        <v>0.0009061307672178309</v>
+        <v>0.002718501263158387</v>
       </c>
       <c r="Q17">
-        <v>46.685587276085</v>
+        <v>27.3593019538475</v>
       </c>
       <c r="R17">
-        <v>280.11352365651</v>
+        <v>164.155811723085</v>
       </c>
       <c r="S17">
-        <v>0.0004483737848125192</v>
+        <v>0.0003588471119866262</v>
       </c>
       <c r="T17">
-        <v>0.000358354342531538</v>
+        <v>0.0002510702040804021</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H18">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I18">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J18">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>3.227997</v>
       </c>
       <c r="O18">
-        <v>0.001063977643628237</v>
+        <v>0.0007665159410094411</v>
       </c>
       <c r="P18">
-        <v>0.001064962015530984</v>
+        <v>0.0007689401966411163</v>
       </c>
       <c r="Q18">
-        <v>54.86887645857301</v>
+        <v>7.738700477892501</v>
       </c>
       <c r="R18">
-        <v>329.213258751438</v>
+        <v>46.43220286735501</v>
       </c>
       <c r="S18">
-        <v>0.00052696704146942</v>
+        <v>0.0001015015047425478</v>
       </c>
       <c r="T18">
-        <v>0.0004211685296465865</v>
+        <v>7.101632605901847E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H19">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I19">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J19">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>481.2993676666667</v>
+        <v>664.3897910000001</v>
       </c>
       <c r="N19">
-        <v>1443.898103</v>
+        <v>1993.169373</v>
       </c>
       <c r="O19">
-        <v>0.4759221589329922</v>
+        <v>0.4732953895360785</v>
       </c>
       <c r="P19">
-        <v>0.4763624730730059</v>
+        <v>0.4747922781878888</v>
       </c>
       <c r="Q19">
-        <v>24543.10417025633</v>
+        <v>4778.362798774533</v>
       </c>
       <c r="R19">
-        <v>147258.6250215379</v>
+        <v>28670.1767926472</v>
       </c>
       <c r="S19">
-        <v>0.2357148137130294</v>
+        <v>0.06267344441963869</v>
       </c>
       <c r="T19">
-        <v>0.1883906462738365</v>
+        <v>0.04384996828801806</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H20">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I20">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J20">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2.804308</v>
+        <v>13.2769335</v>
       </c>
       <c r="N20">
-        <v>5.608616</v>
+        <v>26.553867</v>
       </c>
       <c r="O20">
-        <v>0.002772977500767022</v>
+        <v>0.009458169733868035</v>
       </c>
       <c r="P20">
-        <v>0.00185036200458034</v>
+        <v>0.006325388689197062</v>
       </c>
       <c r="Q20">
-        <v>143.001275283516</v>
+        <v>95.48913300235125</v>
       </c>
       <c r="R20">
-        <v>572.005101134064</v>
+        <v>381.956532009405</v>
       </c>
       <c r="S20">
-        <v>0.001373400802537016</v>
+        <v>0.001252444220316879</v>
       </c>
       <c r="T20">
-        <v>0.0007317765642509333</v>
+        <v>0.0005841882991216567</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H21">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I21">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J21">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>525.2033083333334</v>
+        <v>721.2061360000001</v>
       </c>
       <c r="N21">
-        <v>1575.609925</v>
+        <v>2163.618408</v>
       </c>
       <c r="O21">
-        <v>0.5193355927154716</v>
+        <v>0.5137699942080085</v>
       </c>
       <c r="P21">
-        <v>0.519816072139665</v>
+        <v>0.5153948916631147</v>
       </c>
       <c r="Q21">
-        <v>26781.91656365433</v>
+        <v>5186.992059771621</v>
       </c>
       <c r="R21">
-        <v>160691.499381926</v>
+        <v>31121.95235862973</v>
       </c>
       <c r="S21">
-        <v>0.2572166271180255</v>
+        <v>0.06803306325894219</v>
       </c>
       <c r="T21">
-        <v>0.2055755675760599</v>
+        <v>0.04759986776004516</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9529576666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.858873</v>
+      </c>
+      <c r="I22">
+        <v>0.01754562034021376</v>
+      </c>
+      <c r="J22">
+        <v>0.01835584296898988</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="L22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G22">
-        <v>1.194230333333333</v>
-      </c>
-      <c r="H22">
-        <v>3.582691</v>
-      </c>
-      <c r="I22">
-        <v>0.01159911487008805</v>
-      </c>
-      <c r="J22">
-        <v>0.01389270942266048</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M22">
-        <v>0.9155216666666668</v>
+        <v>3.804073</v>
       </c>
       <c r="N22">
-        <v>2.746565</v>
+        <v>11.412219</v>
       </c>
       <c r="O22">
-        <v>0.0009052932071410816</v>
+        <v>0.002709930581035491</v>
       </c>
       <c r="P22">
-        <v>0.0009061307672178309</v>
+        <v>0.002718501263158387</v>
       </c>
       <c r="Q22">
-        <v>1.093343745157222</v>
+        <v>3.625120529909667</v>
       </c>
       <c r="R22">
-        <v>9.840093706415001</v>
+        <v>32.626084769187</v>
       </c>
       <c r="S22">
-        <v>1.050059990073982E-05</v>
+        <v>4.754741312318362E-05</v>
       </c>
       <c r="T22">
-        <v>1.258861144788973E-05</v>
+        <v>4.990038229753597E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H23">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I23">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J23">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>3.227997</v>
       </c>
       <c r="O23">
-        <v>0.001063977643628237</v>
+        <v>0.0007665159410094411</v>
       </c>
       <c r="P23">
-        <v>0.001064962015530984</v>
+        <v>0.0007689401966411163</v>
       </c>
       <c r="Q23">
-        <v>1.284990644436333</v>
+        <v>1.025381496375667</v>
       </c>
       <c r="R23">
-        <v>11.564915799927</v>
+        <v>9.228433467381</v>
       </c>
       <c r="S23">
-        <v>1.234119890764953E-05</v>
+        <v>1.344899768567334E-05</v>
       </c>
       <c r="T23">
-        <v>1.479520782794279E-05</v>
+        <v>1.411454550208853E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H24">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I24">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J24">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>481.2993676666667</v>
+        <v>664.3897910000001</v>
       </c>
       <c r="N24">
-        <v>1443.898103</v>
+        <v>1993.169373</v>
       </c>
       <c r="O24">
-        <v>0.4759221589329922</v>
+        <v>0.4732953895360785</v>
       </c>
       <c r="P24">
-        <v>0.4763624730730059</v>
+        <v>0.4747922781878888</v>
       </c>
       <c r="Q24">
-        <v>574.7823042816859</v>
+        <v>633.1353449885144</v>
       </c>
       <c r="R24">
-        <v>5173.040738535173</v>
+        <v>5698.218104896629</v>
       </c>
       <c r="S24">
-        <v>0.005520275790684076</v>
+        <v>0.008304261213573616</v>
       </c>
       <c r="T24">
-        <v>0.006617965418263197</v>
+        <v>0.008715212501305844</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9529576666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.858873</v>
+      </c>
+      <c r="I25">
+        <v>0.01754562034021376</v>
+      </c>
+      <c r="J25">
+        <v>0.01835584296898988</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>1.194230333333333</v>
-      </c>
-      <c r="H25">
-        <v>3.582691</v>
-      </c>
-      <c r="I25">
-        <v>0.01159911487008805</v>
-      </c>
-      <c r="J25">
-        <v>0.01389270942266048</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2.804308</v>
+        <v>13.2769335</v>
       </c>
       <c r="N25">
-        <v>5.608616</v>
+        <v>26.553867</v>
       </c>
       <c r="O25">
-        <v>0.002772977500767022</v>
+        <v>0.009458169733868035</v>
       </c>
       <c r="P25">
-        <v>0.00185036200458034</v>
+        <v>0.006325388689197062</v>
       </c>
       <c r="Q25">
-        <v>3.348989677609334</v>
+        <v>12.6523555686485</v>
       </c>
       <c r="R25">
-        <v>20.093938065656</v>
+        <v>75.914133411891</v>
       </c>
       <c r="S25">
-        <v>3.216408456356636E-05</v>
+        <v>0.0001659494552637492</v>
       </c>
       <c r="T25">
-        <v>2.570654165636622E-05</v>
+        <v>0.000116107841496726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H26">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I26">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J26">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>525.2033083333334</v>
+        <v>721.2061360000001</v>
       </c>
       <c r="N26">
-        <v>1575.609925</v>
+        <v>2163.618408</v>
       </c>
       <c r="O26">
-        <v>0.5193355927154716</v>
+        <v>0.5137699942080085</v>
       </c>
       <c r="P26">
-        <v>0.519816072139665</v>
+        <v>0.5153948916631147</v>
       </c>
       <c r="Q26">
-        <v>627.2137219786862</v>
+        <v>687.2789165482428</v>
       </c>
       <c r="R26">
-        <v>5644.923497808175</v>
+        <v>6185.510248934184</v>
       </c>
       <c r="S26">
-        <v>0.006023833196032016</v>
+        <v>0.009014413260567542</v>
       </c>
       <c r="T26">
-        <v>0.007221653643465083</v>
+        <v>0.009460507698387683</v>
       </c>
     </row>
   </sheetData>
